--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang5/5.DoiBH/DM230515_AnhTuanBG.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang5/5.DoiBH/DM230515_AnhTuanBG.xlsx
@@ -17,14 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$24</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>Thiết bị lỗi phần cứng</t>
+  </si>
+  <si>
+    <t>Mắt camera minidome</t>
+  </si>
+  <si>
+    <t>SVT-CW-21-05015471</t>
+  </si>
+  <si>
+    <t>Camera lỗi màu( đen trắng)</t>
+  </si>
+  <si>
+    <t>Đổi camera mới</t>
   </si>
 </sst>
 </file>
@@ -486,7 +498,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -600,6 +612,81 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,79 +702,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
@@ -1132,39 +1150,39 @@
       <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
@@ -1174,13 +1192,13 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
@@ -1190,15 +1208,15 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -1255,101 +1273,115 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37">
+      <c r="A13" s="72">
         <v>2</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="70">
-        <v>862205051226043</v>
+      <c r="B13" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>42</v>
       </c>
       <c r="D13" s="38"/>
       <c r="E13" s="33" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="34"/>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37">
+        <v>3</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="41">
+        <v>862205051226043</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="36" t="s">
+      <c r="I14" s="36" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="19" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="46" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44" t="s">
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="28" t="s">
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="42" t="s">
+      <c r="H17" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="42"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="I17" s="67"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="45" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="24" t="s">
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H18" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="45"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="70"/>
     </row>
     <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
@@ -1374,61 +1406,72 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="C22" s="17"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="20" t="s">
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H23" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="43"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-    </row>
-    <row r="64" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+    </row>
+    <row r="65" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:F18"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A1:C4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.51181102362204722" bottom="0" header="0.43307086614173229" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
